--- a/Archive/Input Template.xlsx
+++ b/Archive/Input Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quantumscape-my.sharepoint.com/personal/edm02_quantumscape_com/Documents/Files/Python Scripts/UnitCellTiering_Git/Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="8_{3A8B5E1E-73E9-4B61-8E18-3AE64D0302AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D7043D0-9EC6-4463-8EE0-6C21292BFB42}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="8_{3A8B5E1E-73E9-4B61-8E18-3AE64D0302AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA3D6BA-B417-4F0F-BF57-C01BD0AC5357}"/>
   <bookViews>
-    <workbookView xWindow="-37220" yWindow="7150" windowWidth="31570" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="1890" windowWidth="23610" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Cells" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
   <si>
     <t>Cell ID</t>
   </si>
@@ -379,139 +379,58 @@
     <t>Anode Tier</t>
   </si>
   <si>
-    <t>UCD005AC-US00-24</t>
-  </si>
-  <si>
-    <t>UCD005AC-US00-22</t>
-  </si>
-  <si>
-    <t>UCD005AC-US00-11</t>
-  </si>
-  <si>
-    <t>UCD008AA-US00-07</t>
-  </si>
-  <si>
-    <t>UCD004AF-US00-01</t>
-  </si>
-  <si>
-    <t>UCD005AC-US00-15</t>
-  </si>
-  <si>
-    <t>UCD004AG-US00-07</t>
-  </si>
-  <si>
-    <t>UCD006AD-US00-12</t>
-  </si>
-  <si>
-    <t>UCD004AG-US00-20</t>
-  </si>
-  <si>
-    <t>UCD004AG-US00-19</t>
-  </si>
-  <si>
-    <t>UCD006AD-US00-07</t>
-  </si>
-  <si>
-    <t>UCD004AF-US00-03</t>
-  </si>
-  <si>
-    <t>UCD006AJ-US01-07</t>
-  </si>
-  <si>
-    <t>UCD006AJ-US01-09</t>
-  </si>
-  <si>
-    <t>UCD006AJ-US01-03</t>
-  </si>
-  <si>
-    <t>UCD006AJ-US01-04</t>
-  </si>
-  <si>
-    <t>UCD006AJ-US01-06</t>
-  </si>
-  <si>
-    <t>UCD005AA-US00-03</t>
-  </si>
-  <si>
-    <t>UCD005AA-US00-04</t>
-  </si>
-  <si>
-    <t>UCD005AA-US00-07</t>
-  </si>
-  <si>
-    <t>UCD005AA-US00-14</t>
-  </si>
-  <si>
-    <t>UCD005AA-US00-06</t>
-  </si>
-  <si>
-    <t>UCD005AB-US00-07</t>
-  </si>
-  <si>
-    <t>UCD003AC-US00-03</t>
-  </si>
-  <si>
-    <t>UCD006AJ-US00-05</t>
-  </si>
-  <si>
-    <t>UCD006AE-US00-02</t>
-  </si>
-  <si>
-    <t>UCD006AD-US00-06</t>
-  </si>
-  <si>
-    <t>UCD006AJ-US00-04</t>
-  </si>
-  <si>
-    <t>UCD006AJ-US02-02</t>
-  </si>
-  <si>
-    <t>UCD006AD-US00-15</t>
-  </si>
-  <si>
-    <t>UCD006AD-US00-23</t>
-  </si>
-  <si>
-    <t>UCD006AB-US00-05</t>
-  </si>
-  <si>
-    <t>UCD004AG-US00-23</t>
-  </si>
-  <si>
-    <t>UCD004AG-US00-22</t>
-  </si>
-  <si>
-    <t>UCD004AG-US00-25</t>
-  </si>
-  <si>
-    <t>UCD004AG-US00-11</t>
-  </si>
-  <si>
-    <t>UCD006AK-US01-03</t>
-  </si>
-  <si>
-    <t>UCD006AK-US02-02</t>
-  </si>
-  <si>
-    <t>UCD006AH-US00-17</t>
-  </si>
-  <si>
-    <t>UCD006AH-US00-14</t>
-  </si>
-  <si>
-    <t>UCD011AA-US00-05</t>
-  </si>
-  <si>
-    <t>UCD006AL-US00-06</t>
-  </si>
-  <si>
-    <t>UCD003AE-US00-03</t>
-  </si>
-  <si>
-    <t>UCD006AM-US00-07</t>
-  </si>
-  <si>
-    <t>UCD006AM-US00-08</t>
+    <t>UCB003AM-US00-42</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-02</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-05</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-07</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-08</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-10</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-11</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-14</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-17</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-19</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-20</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-22</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-28</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-31</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-32</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-35</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-36</t>
+  </si>
+  <si>
+    <t>UCB003AM-US00-40</t>
   </si>
 </sst>
 </file>
@@ -979,7 +898,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A8"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,9 +963,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>112</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1055,9 +974,9 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>113</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>114</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1066,9 +985,9 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>114</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>115</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1077,9 +996,9 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>115</v>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1088,9 +1007,9 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>116</v>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1099,9 +1018,9 @@
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>117</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1110,9 +1029,9 @@
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>118</v>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1121,9 +1040,9 @@
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>119</v>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1132,9 +1051,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>120</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>121</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1143,9 +1062,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>121</v>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>122</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1154,9 +1073,9 @@
       <c r="F11" s="8"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>122</v>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>123</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1165,9 +1084,9 @@
       <c r="F12" s="8"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>123</v>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1176,9 +1095,9 @@
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>136</v>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1187,9 +1106,9 @@
       <c r="F14" s="8"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>137</v>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>126</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1198,9 +1117,9 @@
       <c r="F15" s="8"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>138</v>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>127</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1209,9 +1128,9 @@
       <c r="F16" s="8"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>139</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>128</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1220,9 +1139,9 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>140</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>129</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1231,9 +1150,9 @@
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>143</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1243,9 +1162,7 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1254,9 +1171,7 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1265,9 +1180,7 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1276,9 +1189,7 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1287,9 +1198,7 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1298,9 +1207,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>147</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1309,9 +1216,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1320,9 +1225,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1331,9 +1234,7 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1342,9 +1243,7 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1353,9 +1252,7 @@
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1364,9 +1261,7 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1375,9 +1270,7 @@
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1386,9 +1279,7 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1397,9 +1288,7 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1408,9 +1297,7 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1419,9 +1306,7 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1430,9 +1315,7 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="A37" s="5"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1441,9 +1324,7 @@
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>135</v>
-      </c>
+      <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1452,9 +1333,7 @@
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="A39" s="5"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1463,9 +1342,7 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1474,9 +1351,7 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1485,9 +1360,7 @@
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="A42" s="5"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1496,9 +1369,7 @@
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1507,9 +1378,7 @@
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="A44" s="5"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1518,9 +1387,7 @@
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="A45" s="5"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1529,9 +1396,7 @@
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="A46" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -4932,27 +4797,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Size xmlns="87dd1a8e-f81d-4e2f-ac22-41eb8634560a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="87dd1a8e-f81d-4e2f-ac22-41eb8634560a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="afee07ff-ed6b-4871-9653-f8f512c91216" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002082AD743D130B4F90A6DB6E5203E6E3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="337e05fe7ae3db2b885a6218588c8bab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87dd1a8e-f81d-4e2f-ac22-41eb8634560a" xmlns:ns3="afee07ff-ed6b-4871-9653-f8f512c91216" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ed53b2558a85fc225b504ba783d2bec" ns2:_="" ns3:_="">
     <xsd:import namespace="87dd1a8e-f81d-4e2f-ac22-41eb8634560a"/>
@@ -5207,26 +5051,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8FA473-391A-4D5A-A2A7-CD6EDC606A5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="87dd1a8e-f81d-4e2f-ac22-41eb8634560a"/>
-    <ds:schemaRef ds:uri="afee07ff-ed6b-4871-9653-f8f512c91216"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B024862-8AC5-4267-9600-2D175E5A9787}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Size xmlns="87dd1a8e-f81d-4e2f-ac22-41eb8634560a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="87dd1a8e-f81d-4e2f-ac22-41eb8634560a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="afee07ff-ed6b-4871-9653-f8f512c91216" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70BDC9F7-6182-47AC-A38E-2CA0DA73F4E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5245,6 +5091,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B024862-8AC5-4267-9600-2D175E5A9787}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8FA473-391A-4D5A-A2A7-CD6EDC606A5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87dd1a8e-f81d-4e2f-ac22-41eb8634560a"/>
+    <ds:schemaRef ds:uri="afee07ff-ed6b-4871-9653-f8f512c91216"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e8921afb-89c5-400b-bf0d-18e6fa99e1b9}" enabled="0" method="" siteId="{e8921afb-89c5-400b-bf0d-18e6fa99e1b9}" removed="1"/>
